--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhonny\Nextcloud\Projeto RAD-ITV\J ssd\campos-rupestres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D557A3-044C-443D-BA03-CAA656983D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E70BCAD-5BE2-43C4-A0C0-F189998AA6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{49E2E975-8EDC-43D4-85D2-1E4CC48471D1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{49E2E975-8EDC-43D4-85D2-1E4CC48471D1}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="195">
   <si>
     <t>code_local</t>
   </si>
@@ -579,10 +579,49 @@
     <t>CR2</t>
   </si>
   <si>
-    <t>This dataset includes the names of sites where plant surveys have been carried out, their geographic location, climatic data retrieved from CHELSA database and phylogenetic indices calculated for the main results of the paper entitled: "Looking similar but all different: phylogenetic signature of Brazilian rocky outcrops and the influence of temperature variability on their phylogenetic structure", written by JC Massante and collaborators (2023), published in Journal of Ecology. For additional detais, please have a look at the "Data sources" section of the paper.</t>
-  </si>
-  <si>
     <t>meca</t>
+  </si>
+  <si>
+    <t>Location of the study</t>
+  </si>
+  <si>
+    <t>Individual community within the site</t>
+  </si>
+  <si>
+    <t>Rocky outcrop type</t>
+  </si>
+  <si>
+    <t>Specification of the rocky outcrop type</t>
+  </si>
+  <si>
+    <t>This dataset includes the names of sites where plant surveys have been carried out, their geographic location, climatic data retrieved from CHELSA database and phylogenetic indices calculated for the main results of the paper entitled: "Looking similar but all different: phylogenetic signature of Brazilian rocky outcrops and the influence of temperature variability on their phylogenetic structure", written by JC Massante and collaborators (2023), published in Journal of Ecology. For additional detais, please have a look at the "Data sources" section of the paper. For description of climatic data, please see the CHELSA database.</t>
+  </si>
+  <si>
+    <t>Elevation in meters</t>
+  </si>
+  <si>
+    <t>Number of species</t>
+  </si>
+  <si>
+    <t>Observed phylogenetic diversity (PD) in each community</t>
+  </si>
+  <si>
+    <t>Standardised effect size of PD</t>
+  </si>
+  <si>
+    <t>Observed mean pairwise phylogenetic distance (MPD) in each community</t>
+  </si>
+  <si>
+    <t>Standardised effect size of MPD</t>
+  </si>
+  <si>
+    <t>Observed mean nearest taxon distance (MNTD) in each community</t>
+  </si>
+  <si>
+    <t>Standardised effect size of MNTD</t>
+  </si>
+  <si>
+    <t>Median community age</t>
   </si>
 </sst>
 </file>
@@ -945,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535413CC-AC3A-44D0-9A09-8FE1247AB7A6}">
   <dimension ref="A1:AH130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1052,7 +1091,7 @@
         <v>163</v>
       </c>
       <c r="AH1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.45">
@@ -14475,17 +14514,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627556FB-9718-4CDC-894C-94617515ECE2}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23.1328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -14661,6 +14703,215 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N11"/>
